--- a/SCBAA/2019/Region 5.xlsx
+++ b/SCBAA/2019/Region 5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\RESEARCH\2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AF0EF3-D24F-4649-AE1A-9732F338F151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F08D1E2-0B1B-4DD5-852D-EEAF884998A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12660" yWindow="870" windowWidth="14370" windowHeight="12495" firstSheet="2" activeTab="6" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="3180" yWindow="1005" windowWidth="14880" windowHeight="11070" activeTab="4" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Ligao" sheetId="2" r:id="rId1"/>
@@ -25,6 +25,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -863,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A25628-C352-48F1-8E8E-FEFECF825C21}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="E18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F29" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,7 +995,6 @@
         <v>23</v>
       </c>
       <c r="E11" s="35">
-        <f>4840071.35+6907714.43</f>
         <v>11747785.779999999</v>
       </c>
     </row>
@@ -1022,7 +1028,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>54580287.43</v>
       </c>
     </row>
@@ -1065,7 +1070,6 @@
         <v>28</v>
       </c>
       <c r="E18" s="35">
-        <f>8887326.39+5000917.34</f>
         <v>13888243.73</v>
       </c>
     </row>
@@ -1077,7 +1081,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>51429349.5</v>
       </c>
     </row>
@@ -1267,7 +1270,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>726112140.55000007</v>
       </c>
     </row>
@@ -1844,7 +1846,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>534377211.23999995</v>
       </c>
     </row>
@@ -2019,7 +2020,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>157782310.49000001</v>
       </c>
     </row>
@@ -2031,7 +2031,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>692159521.73000002</v>
       </c>
     </row>
@@ -4431,8 +4430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC647E1-5327-4EE4-98EB-10DBAC6D7942}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4589,7 +4588,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f>SUM(E11:E13)</f>
         <v>67127547.060000002</v>
       </c>
     </row>
@@ -4643,7 +4641,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f>SUM(E16:E18)</f>
         <v>46151063.18</v>
       </c>
     </row>
@@ -4759,7 +4756,6 @@
         <v>39</v>
       </c>
       <c r="E30" s="33">
-        <f>34650.18+2538479.21</f>
         <v>2573129.39</v>
       </c>
     </row>
@@ -4835,7 +4831,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>768599617.44999993</v>
       </c>
     </row>
@@ -5412,7 +5407,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>621095629.82999992</v>
       </c>
     </row>
@@ -5587,7 +5581,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>113976802.27</v>
       </c>
     </row>
@@ -5599,7 +5592,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>735072432.0999999</v>
       </c>
     </row>
@@ -5621,8 +5613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E90C51F-5A07-4EFA-876D-8C2136C1048C}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView tabSelected="1" topLeftCell="E3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5779,7 +5771,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f>SUM(E11:E13)</f>
         <v>422135083.5</v>
       </c>
     </row>
@@ -5833,7 +5824,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f>SUM(E16:E18)</f>
         <v>226382650.48999998</v>
       </c>
     </row>
@@ -6024,7 +6014,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1268988471.51</v>
       </c>
     </row>
@@ -6601,7 +6590,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>1277075186.7300003</v>
       </c>
     </row>
@@ -6768,7 +6756,6 @@
         <v>12</v>
       </c>
       <c r="E110" s="18">
-        <f>1875908.2+3329740.43+57123513.09+4942213.96</f>
         <v>67271375.680000007</v>
       </c>
     </row>
@@ -6777,7 +6764,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>171149313.74000001</v>
       </c>
     </row>
@@ -6789,7 +6775,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>1448224500.4700003</v>
       </c>
     </row>
@@ -8000,7 +7985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66DDB8D1-CBA9-451C-AF6C-E3E4CA57A4D6}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
